--- a/File_Excel/commenti_odio_per_notizia.xlsx
+++ b/File_Excel/commenti_odio_per_notizia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1617,11 +1617,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1633,16 +1633,16 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1659,11 +1659,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1675,16 +1675,16 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -1696,16 +1696,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1722,53 +1722,53 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>L'incoronazione di Re Carlo</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L'incoronazione di Re Carlo</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1785,11 +1785,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1822,16 +1822,16 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -1864,16 +1864,16 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -1885,28 +1885,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1915,19 +1915,19 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1969,16 +1969,16 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -1990,16 +1990,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2011,16 +2011,16 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2032,16 +2032,16 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -2053,100 +2053,100 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -2158,16 +2158,16 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2200,16 +2200,16 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -2221,16 +2221,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -2242,100 +2242,100 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2347,16 +2347,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2398,19 +2398,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2426,12 +2426,12 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2461,49 +2461,49 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -2515,16 +2515,16 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -2536,16 +2536,16 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -2557,16 +2557,16 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -2578,15 +2578,120 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E103" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Il Corriere Della Sera</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Il Corriere Della Sera</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
         <v>14</v>
       </c>
     </row>

--- a/File_Excel/commenti_odio_per_notizia.xlsx
+++ b/File_Excel/commenti_odio_per_notizia.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
